--- a/チェックリスト/仕様書/射撃フェーズの開始演出.xlsx
+++ b/チェックリスト/仕様書/射撃フェーズの開始演出.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FE08FC-F5F7-4674-8320-A6F546B37854}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F173A96D-7349-42EC-8F00-E91480F32786}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,28 +41,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>シテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エネミーが防衛ライン突破、もしくは射影機全部使いきったら</t>
-    <rPh sb="5" eb="7">
-      <t>ボウエイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トッパ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シャエイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ゼンブ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -138,45 +116,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>へり</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>横を通過していく感じ</t>
-    <rPh sb="0" eb="1">
-      <t>ヨコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ツウカ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通り過ぎる時に真ん中あたりでプレイヤーを落としていく</t>
-    <rPh sb="0" eb="1">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤーの正面にカメラを寄せる</t>
     <rPh sb="6" eb="8">
       <t>ショウメン</t>
@@ -216,6 +155,55 @@
     <t>カメラの視点</t>
     <rPh sb="4" eb="6">
       <t>シテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了デモから画面遷移</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラの赤い丸が見てるほう</t>
+    <rPh sb="4" eb="5">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの正面から背中に回り込むように</t>
+    <rPh sb="6" eb="8">
+      <t>ショウメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セナカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーを写す</t>
+    <rPh sb="6" eb="7">
+      <t>ウツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1617,14 +1605,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133348</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>242205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>198503</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1639,8 +1627,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6957730"/>
-          <a:ext cx="6552079" cy="4662769"/>
+          <a:off x="0" y="7100205"/>
+          <a:ext cx="6523264" cy="4854869"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1731,276 +1719,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>536323</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>120280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>439275</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>40878</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="図 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A8CEE08-53B4-4416-9142-4CC124CC9572}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="913895" flipH="1">
-          <a:off x="1903441" y="8591927"/>
-          <a:ext cx="1953628" cy="1332539"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>235324</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>212913</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="直線コネクタ 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB5986FB-05AE-4B3B-89A4-073ED02C6262}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="235324" y="8796617"/>
-          <a:ext cx="2028265" cy="33618"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>387724</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>6723</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>365313</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>40341</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="直線コネクタ 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D95CD8-D1CB-46F8-A378-3F8EB7EB53DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="387724" y="8949017"/>
-          <a:ext cx="2028265" cy="33618"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>540124</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>159123</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>517713</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>192741</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="直線コネクタ 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B10C8CFB-8D7D-48CE-AE09-2243F319F5F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="540124" y="9101417"/>
-          <a:ext cx="2028265" cy="33618"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>658906</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>132228</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>636495</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>165846</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="直線コネクタ 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80288BD-5AB4-437B-BB0F-3AD3526E0605}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="658906" y="9309846"/>
-          <a:ext cx="2028265" cy="33618"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2213,66 +1931,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>293034</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>123544</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="直線コネクタ 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A620E6E0-3645-4E56-88E8-A5D9D4971D7E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3710828" y="9301162"/>
-          <a:ext cx="3135966" cy="22132"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>202828</xdr:colOff>
+      <xdr:colOff>162006</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>182095</xdr:rowOff>
+      <xdr:rowOff>236524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>545728</xdr:colOff>
+      <xdr:colOff>504906</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>13447</xdr:rowOff>
+      <xdr:rowOff>67876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2287,8 +1955,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2937063" y="9830360"/>
-          <a:ext cx="342900" cy="537322"/>
+          <a:off x="2883435" y="10278595"/>
+          <a:ext cx="342900" cy="566138"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2578,7 +2246,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3587,6 +3255,211 @@
           <a:ext cx="648820" cy="770406"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>163287</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>40819</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矢印: 右カーブ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7A9FDA-6C48-4E62-803D-AF21448A4AAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="598714" y="8191500"/>
+          <a:ext cx="1605644" cy="2871105"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>149680</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>503466</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CEA932-7D17-48AF-BC4C-A1D3061E6875}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190751" y="7851320"/>
+          <a:ext cx="353786" cy="843643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>か</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>め</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ら</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>503464</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="楕円 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79084D28-C2B1-4207-A170-09AAF3C602EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2122714" y="8545285"/>
+          <a:ext cx="421821" cy="244929"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
@@ -3888,8 +3761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R88" sqref="R88"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3901,17 +3774,17 @@
     </row>
     <row r="2" spans="1:11">
       <c r="K2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="K4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="K5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3921,77 +3794,76 @@
     </row>
     <row r="14" spans="1:11">
       <c r="K14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="K15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="18" spans="7:11">
+    <row r="18" spans="1:11">
       <c r="K18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="K19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="7:11">
-      <c r="K19" t="s">
-        <v>5</v>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="27" spans="7:11">
-      <c r="G27" t="s">
-        <v>7</v>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="11:11">
       <c r="K37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="11:11">
-      <c r="K40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="11:11">
-      <c r="K41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="11:11">
-      <c r="K42" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="8:11">
       <c r="H53" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="8:11">
       <c r="K61" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="8:8">
       <c r="H77" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="13:19">
       <c r="M83" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="13:19">
       <c r="S84" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>